--- a/fms_core/static/submission_templates/Extraction_v0.5.xlsx
+++ b/fms_core/static/submission_templates/Extraction_v0.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kseni\Documents\fms\fms_core\static\submission_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC48E22-A98C-442D-88DD-E896DF2097D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD8FDE4-7473-4A47-8571-B2FC348470D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtractionTemplate" sheetId="1" r:id="rId1"/>
@@ -1858,7 +1858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -4423,7 +4423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
